--- a/biology/Médecine/Échelle_AVPU/Échelle_AVPU.xlsx
+++ b/biology/Médecine/Échelle_AVPU/Échelle_AVPU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_AVPU</t>
+          <t>Échelle_AVPU</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>L'échelle AVPU est une des nombreuses façons de qualifier l'état de conscience d'une victime ou patient. Elle est particulièrement utilisée dans un contexte de prompt secours.
 Il s'agit d'un acronyme anglais, correspondant à quatre niveaux :
